--- a/Team-Data/2012-13/4-7-2012-13.xlsx
+++ b/Team-Data/2012-13/4-7-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -768,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
@@ -801,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX2" t="n">
         <v>22</v>
@@ -813,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -848,34 +915,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
         <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>0.519</v>
+        <v>0.513</v>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L3" t="n">
         <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N3" t="n">
         <v>0.356</v>
@@ -884,13 +951,13 @@
         <v>16.5</v>
       </c>
       <c r="P3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R3" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="S3" t="n">
         <v>31.4</v>
@@ -899,16 +966,16 @@
         <v>39.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -920,22 +987,22 @@
         <v>19.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF3" t="n">
         <v>15</v>
       </c>
-      <c r="AF3" t="n">
-        <v>14</v>
-      </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -947,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -959,13 +1026,13 @@
         <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,13 +1044,13 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1123,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1138,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1162,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -1394,37 +1461,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.553</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M6" t="n">
         <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O6" t="n">
         <v>16.3</v>
@@ -1433,22 +1500,22 @@
         <v>21.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R6" t="n">
         <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
         <v>19.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1481,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1490,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1502,16 +1569,16 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>22</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
         <v>5</v>
@@ -1520,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1532,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>52</v>
       </c>
       <c r="G7" t="n">
-        <v>0.316</v>
+        <v>0.307</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,10 +1661,10 @@
         <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
@@ -1606,7 +1673,7 @@
         <v>19.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O7" t="n">
         <v>17</v>
@@ -1615,19 +1682,19 @@
         <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S7" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T7" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
@@ -1636,25 +1703,25 @@
         <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y7" t="n">
         <v>6.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>96.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1675,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
@@ -1687,7 +1754,7 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
@@ -1696,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1705,13 +1772,13 @@
         <v>23</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1723,10 +1790,10 @@
         <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -1758,58 +1825,58 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
         <v>39</v>
       </c>
       <c r="G8" t="n">
-        <v>0.494</v>
+        <v>0.487</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
       </c>
       <c r="I8" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M8" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O8" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P8" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q8" t="n">
         <v>0.794</v>
       </c>
       <c r="R8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
         <v>41.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V8" t="n">
         <v>14</v>
@@ -1824,19 +1891,19 @@
         <v>4.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1866,13 +1933,13 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
@@ -1881,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
         <v>16</v>
@@ -1890,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2048,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
@@ -2066,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
@@ -2084,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>52</v>
       </c>
       <c r="G10" t="n">
-        <v>0.333</v>
+        <v>0.325</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,10 +2207,10 @@
         <v>36.1</v>
       </c>
       <c r="J10" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
@@ -2152,13 +2219,13 @@
         <v>17.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O10" t="n">
         <v>15.7</v>
       </c>
       <c r="P10" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q10" t="n">
         <v>0.697</v>
@@ -2167,19 +2234,19 @@
         <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T10" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U10" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V10" t="n">
         <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X10" t="n">
         <v>5</v>
@@ -2194,13 +2261,13 @@
         <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -2212,10 +2279,10 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ10" t="n">
         <v>22</v>
@@ -2230,7 +2297,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2242,7 +2309,7 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>19</v>
@@ -2251,13 +2318,13 @@
         <v>14</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX10" t="n">
         <v>16</v>
@@ -2272,7 +2339,7 @@
         <v>16</v>
       </c>
       <c r="BB10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -2304,31 +2371,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
         <v>44</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>0.571</v>
+        <v>0.579</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.457</v>
       </c>
       <c r="L11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>19.8</v>
@@ -2340,7 +2407,7 @@
         <v>17</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q11" t="n">
         <v>0.793</v>
@@ -2352,7 +2419,7 @@
         <v>33.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
         <v>22.5</v>
@@ -2361,7 +2428,7 @@
         <v>15.1</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X11" t="n">
         <v>4.2</v>
@@ -2370,31 +2437,31 @@
         <v>4.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA11" t="n">
         <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>17</v>
@@ -2436,10 +2503,10 @@
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
@@ -2451,7 +2518,7 @@
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2585,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -2630,10 +2697,10 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2782,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>18</v>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2812,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.662</v>
+        <v>0.658</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
         <v>80.59999999999999</v>
@@ -2880,7 +2947,7 @@
         <v>21.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O14" t="n">
         <v>16.6</v>
@@ -2889,7 +2956,7 @@
         <v>23.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.712</v>
+        <v>0.71</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
@@ -2898,13 +2965,13 @@
         <v>29.9</v>
       </c>
       <c r="T14" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W14" t="n">
         <v>9.699999999999999</v>
@@ -2916,19 +2983,19 @@
         <v>4.2</v>
       </c>
       <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
         <v>21.1</v>
       </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
       <c r="AB14" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,13 +3025,13 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2973,16 +3040,16 @@
         <v>15</v>
       </c>
       <c r="AS14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT14" t="n">
         <v>21</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="n">
         <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.519</v>
+        <v>0.526</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.458</v>
@@ -3077,13 +3144,13 @@
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T15" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U15" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3098,49 +3165,49 @@
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
         <v>14</v>
       </c>
-      <c r="AG15" t="n">
-        <v>15</v>
-      </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3155,16 +3222,16 @@
         <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
         <v>24</v>
@@ -3173,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>2</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.675</v>
+        <v>0.671</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.445</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P16" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q16" t="n">
         <v>0.778</v>
       </c>
       <c r="R16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
         <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
         <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
         <v>3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3304,10 +3371,10 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
         <v>17</v>
@@ -3325,13 +3392,13 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
         <v>3</v>
@@ -3352,16 +3419,16 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -3656,19 +3723,19 @@
         <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3695,7 +3762,7 @@
         <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>2</v>
@@ -3713,19 +3780,19 @@
         <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
       </c>
       <c r="AY18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ18" t="n">
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3850,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
         <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>0.351</v>
+        <v>0.342</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J20" t="n">
         <v>80.2</v>
@@ -3972,16 +4039,16 @@
         <v>18</v>
       </c>
       <c r="N20" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O20" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
@@ -3990,13 +4057,13 @@
         <v>29.6</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
         <v>21.1</v>
       </c>
       <c r="V20" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
@@ -4008,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
         <v>18.5</v>
@@ -4017,25 +4084,25 @@
         <v>94</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4050,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4059,19 +4126,19 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J21" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L21" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O21" t="n">
         <v>16.3</v>
@@ -4166,19 +4233,19 @@
         <v>0.759</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
         <v>40.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V21" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W21" t="n">
         <v>8.300000000000001</v>
@@ -4187,7 +4254,7 @@
         <v>3.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z21" t="n">
         <v>20</v>
@@ -4196,13 +4263,13 @@
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC21" t="n">
         <v>4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -4217,13 +4284,13 @@
         <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
@@ -4244,10 +4311,10 @@
         <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
         <v>25</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -4306,37 +4373,37 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="n">
         <v>56</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.727</v>
+        <v>0.737</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J22" t="n">
         <v>79</v>
       </c>
       <c r="K22" t="n">
-        <v>0.482</v>
+        <v>0.481</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O22" t="n">
         <v>22.6</v>
@@ -4345,13 +4412,13 @@
         <v>27.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.828</v>
+        <v>0.827</v>
       </c>
       <c r="R22" t="n">
         <v>10.4</v>
       </c>
       <c r="S22" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T22" t="n">
         <v>43.6</v>
@@ -4366,7 +4433,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
@@ -4375,22 +4442,22 @@
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>105.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
         <v>3</v>
@@ -4414,7 +4481,7 @@
         <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4453,10 +4520,10 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" t="n">
-        <v>0.244</v>
+        <v>0.247</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K23" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
         <v>6.3</v>
       </c>
       <c r="M23" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="O23" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="P23" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R23" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S23" t="n">
         <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V23" t="n">
         <v>14.4</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
         <v>4.4</v>
@@ -4560,13 +4627,13 @@
         <v>16.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC23" t="n">
         <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,13 +4645,13 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK23" t="n">
         <v>16</v>
@@ -4617,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
         <v>11</v>
@@ -4638,10 +4705,10 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" t="n">
-        <v>0.299</v>
+        <v>0.303</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,10 +4937,10 @@
         <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L25" t="n">
         <v>5.7</v>
@@ -4888,10 +4955,10 @@
         <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R25" t="n">
         <v>11.7</v>
@@ -4900,10 +4967,10 @@
         <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V25" t="n">
         <v>15.5</v>
@@ -4918,22 +4985,22 @@
         <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC25" t="n">
         <v>-6.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF25" t="n">
         <v>28</v>
@@ -4942,13 +5009,13 @@
         <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
         <v>23</v>
@@ -4969,13 +5036,13 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4990,13 +5057,13 @@
         <v>16</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5005,7 +5072,7 @@
         <v>21</v>
       </c>
       <c r="BC25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5064,22 +5131,22 @@
         <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O26" t="n">
         <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R26" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T26" t="n">
         <v>41.2</v>
@@ -5103,16 +5170,16 @@
         <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC26" t="n">
         <v>-2.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,10 +5191,10 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
@@ -5136,7 +5203,7 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
@@ -5148,13 +5215,13 @@
         <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS26" t="n">
         <v>16</v>
@@ -5166,7 +5233,7 @@
         <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
@@ -5181,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -5216,43 +5283,43 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>7.3</v>
       </c>
       <c r="M27" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O27" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q27" t="n">
         <v>0.771</v>
@@ -5261,13 +5328,13 @@
         <v>11.5</v>
       </c>
       <c r="S27" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T27" t="n">
         <v>40.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V27" t="n">
         <v>14.7</v>
@@ -5279,7 +5346,7 @@
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
@@ -5288,13 +5355,13 @@
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AC27" t="n">
         <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5315,10 +5382,10 @@
         <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM27" t="n">
         <v>11</v>
@@ -5327,7 +5394,7 @@
         <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
         <v>11</v>
@@ -5345,10 +5412,10 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
@@ -5360,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,19 +5561,19 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
@@ -5521,31 +5588,31 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
         <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5676,7 +5743,7 @@
         <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>22</v>
@@ -5700,7 +5767,7 @@
         <v>5</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5721,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,7 +5797,7 @@
         <v>13</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" t="n">
         <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>0.526</v>
+        <v>0.519</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,7 +5847,7 @@
         <v>37.3</v>
       </c>
       <c r="J30" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K30" t="n">
         <v>0.455</v>
@@ -5789,19 +5856,19 @@
         <v>6.2</v>
       </c>
       <c r="M30" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O30" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="P30" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R30" t="n">
         <v>12.3</v>
@@ -5813,7 +5880,7 @@
         <v>42</v>
       </c>
       <c r="U30" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
@@ -5822,16 +5889,16 @@
         <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" t="n">
         <v>98.5</v>
@@ -5840,19 +5907,19 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>13</v>
@@ -5870,13 +5937,13 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP30" t="n">
         <v>8</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>10</v>
       </c>
       <c r="AQ30" t="n">
         <v>13</v>
@@ -5894,7 +5961,7 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>5</v>
@@ -5909,7 +5976,7 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" t="n">
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5965,34 +6032,34 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N31" t="n">
         <v>0.364</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T31" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U31" t="n">
         <v>21.8</v>
@@ -6004,13 +6071,13 @@
         <v>7.2</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
         <v>19.1</v>
@@ -6019,22 +6086,22 @@
         <v>93.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
@@ -6043,7 +6110,7 @@
         <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6064,10 +6131,10 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT31" t="n">
         <v>7</v>
@@ -6076,7 +6143,7 @@
         <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>22</v>
@@ -6085,7 +6152,7 @@
         <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-7-2012-13</t>
+          <t>2013-04-07</t>
         </is>
       </c>
     </row>
